--- a/csv_files/3_to_5/allz/summary.xlsx
+++ b/csv_files/3_to_5/allz/summary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\particles_repo\csv_files\3_to_5\allz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ניר צדוק\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188B0121-59C0-481A-896C-772222F2E0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,10 +234,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="טוב" xfId="1" builtinId="26"/>
+    <cellStyle name="ניטראלי" xfId="3" builtinId="28"/>
+    <cellStyle name="רע" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -252,9 +253,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -836,7 +837,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A3FC-4FEB-802D-24F94B35C822}"/>
             </c:ext>
@@ -1353,7 +1354,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A3FC-4FEB-802D-24F94B35C822}"/>
             </c:ext>
@@ -1689,14 +1690,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1732,9 +1733,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1746,7 +1747,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2468,6 +2468,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76C6-45CC-A52D-AA61E4B53223}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2484,6 +2489,8 @@
         <c:axId val="576108888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2546,6 +2553,8 @@
         <c:axId val="576110456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
+          <c:min val="-0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2650,9 +2659,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2689,7 +2698,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3249,6 +3257,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A240-4768-8C59-1E4FE0F4FDAA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3265,6 +3278,8 @@
         <c:axId val="352832896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3431,9 +3446,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3470,7 +3485,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4138,6 +4152,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-77C8-46B5-B82A-D558C313D43F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4154,6 +4173,8 @@
         <c:axId val="584678424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4216,6 +4237,7 @@
         <c:axId val="434566872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4320,9 +4342,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4359,7 +4381,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5027,6 +5048,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A35-47C3-8888-8E0AD43130AD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5043,6 +5069,8 @@
         <c:axId val="434565696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5105,6 +5133,7 @@
         <c:axId val="434564128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5209,9 +5238,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5253,7 +5282,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5924,6 +5952,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-277D-48C6-B900-C96100A93E75}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6560,6 +6593,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-277D-48C6-B900-C96100A93E75}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6576,6 +6614,8 @@
         <c:axId val="434564520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6638,6 +6678,8 @@
         <c:axId val="434564912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="-0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6706,7 +6748,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6774,9 +6815,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6813,7 +6854,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7484,6 +7524,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A77-43C6-8A18-3AF562BA91E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -8120,6 +8165,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9A77-43C6-8A18-3AF562BA91E9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8136,6 +8186,8 @@
         <c:axId val="576522088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8198,6 +8250,7 @@
         <c:axId val="576519736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8266,7 +8319,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8334,9 +8386,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8373,7 +8425,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9044,6 +9095,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8807-4BAB-80FD-AB09E620330E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -9680,6 +9736,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8807-4BAB-80FD-AB09E620330E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9696,6 +9757,8 @@
         <c:axId val="576520520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9758,6 +9821,7 @@
         <c:axId val="576521696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9826,7 +9890,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9894,9 +9957,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9933,7 +9996,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10604,6 +10666,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4670-4094-99A0-1E9D3DAB78C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -11240,6 +11307,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4670-4094-99A0-1E9D3DAB78C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -11876,6 +11948,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4670-4094-99A0-1E9D3DAB78C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -11892,6 +11969,8 @@
         <c:axId val="83184216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11954,6 +12033,8 @@
         <c:axId val="83185000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="-0.8"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -12022,7 +12103,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12090,9 +12170,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12795,6 +12875,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56E2-4AA7-BD88-C86C93CBA626}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -13482,6 +13567,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-56E2-4AA7-BD88-C86C93CBA626}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -13498,6 +13588,8 @@
         <c:axId val="83185784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="89"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13628,7 +13720,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -19275,7 +19366,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19308,7 +19399,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19338,7 +19435,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19368,7 +19471,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -19398,7 +19507,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19430,7 +19545,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19462,7 +19583,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19494,7 +19621,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19515,18 +19648,24 @@
     <xdr:from>
       <xdr:col>46</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>55419</xdr:rowOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>38793</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -19551,14 +19690,20 @@
       <xdr:rowOff>137853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>89362</xdr:rowOff>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -24097,20 +24242,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF121" sqref="AF121"/>
+    <sheetView tabSelected="1" topLeftCell="AF124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BF170" sqref="BF170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -24131,7 +24276,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>0</v>
       </c>
@@ -24169,7 +24314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -24214,7 +24359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -24259,7 +24404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -24304,7 +24449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -24349,7 +24494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -24394,7 +24539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -24439,7 +24584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -24484,7 +24629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -24529,7 +24674,7 @@
         <v>0.29880715233359845</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -24574,7 +24719,7 @@
         <v>0.53452248382484879</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -24619,7 +24764,7 @@
         <v>2.2253945610567474</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -24664,7 +24809,7 @@
         <v>5.931654390599963</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -24709,7 +24854,7 @@
         <v>5.0023803857573164</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -24754,7 +24899,7 @@
         <v>10.331413032015284</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -24799,7 +24944,7 @@
         <v>19.673374562252068</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -24844,7 +24989,7 @@
         <v>18.76610419524166</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -24889,7 +25034,7 @@
         <v>23.177241505613299</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -24934,7 +25079,7 @@
         <v>25.85663311783799</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -24979,7 +25124,7 @@
         <v>48.093101673435754</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -25024,7 +25169,7 @@
         <v>43.866613294221402</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -25069,7 +25214,7 @@
         <v>53.607035785559773</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -25114,7 +25259,7 @@
         <v>83.886970439537322</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -25159,7 +25304,7 @@
         <v>79.77822683032305</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -25204,7 +25349,7 @@
         <v>62.064290783639755</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -25249,7 +25394,7 @@
         <v>102.40256693211219</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -25294,7 +25439,7 @@
         <v>104.53089654897892</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -25339,7 +25484,7 @@
         <v>113.81582344589292</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -25384,7 +25529,7 @@
         <v>116.14417866641118</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -25429,7 +25574,7 @@
         <v>153.89382548955473</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -25474,7 +25619,7 @@
         <v>153.77062385873569</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -25519,7 +25664,7 @@
         <v>154.36827872393499</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -25564,7 +25709,7 @@
         <v>165.70166464663737</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -25609,7 +25754,7 @@
         <v>173.63316558329572</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -25654,7 +25799,7 @@
         <v>168.99640740052942</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -25699,7 +25844,7 @@
         <v>191.85570905041658</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -25744,7 +25889,7 @@
         <v>189.69499328182198</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -25789,7 +25934,7 @@
         <v>191.71467825167394</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -25834,7 +25979,7 @@
         <v>192.66081717928657</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -25879,7 +26024,7 @@
         <v>181.11846623004462</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -25924,7 +26069,7 @@
         <v>177.90819930782388</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -25969,7 +26114,7 @@
         <v>189.21158476563693</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -26014,7 +26159,7 @@
         <v>181.83337152459117</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -26059,7 +26204,7 @@
         <v>186.90002420443676</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -26104,7 +26249,7 @@
         <v>212.47946679508544</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -26149,7 +26294,7 @@
         <v>191.8051932113861</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -26194,7 +26339,7 @@
         <v>175.8467947905086</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -26239,7 +26384,7 @@
         <v>198.23901819100431</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -26284,7 +26429,7 @@
         <v>189.47570204822219</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -26329,7 +26474,7 @@
         <v>176.31841799372384</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -26374,7 +26519,7 @@
         <v>163.15082125502917</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -26419,7 +26564,7 @@
         <v>166.89111077928285</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -26464,7 +26609,7 @@
         <v>140.81522847841626</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -26509,7 +26654,7 @@
         <v>149.84746212319351</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -26554,7 +26699,7 @@
         <v>145.99967384177529</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -26599,7 +26744,7 @@
         <v>141.08472209819109</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -26644,7 +26789,7 @@
         <v>116.7922198566652</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -26689,7 +26834,7 @@
         <v>121.10480997879482</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -26734,7 +26879,7 @@
         <v>115.31406390086741</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -26779,7 +26924,7 @@
         <v>127.3812939470276</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -26824,7 +26969,7 @@
         <v>124.3261599488179</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -26869,7 +27014,7 @@
         <v>107.17931125877215</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -26914,7 +27059,7 @@
         <v>93.356459719874621</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -26959,7 +27104,7 @@
         <v>88.745455953423061</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -27004,7 +27149,7 @@
         <v>81.647762632280021</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -27049,7 +27194,7 @@
         <v>81.702676706166628</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -27094,7 +27239,7 @@
         <v>74.848895401716803</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -27139,7 +27284,7 @@
         <v>63.849851772956931</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -27184,7 +27329,7 @@
         <v>71.854971329490525</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -27229,7 +27374,7 @@
         <v>56.167055248055291</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
@@ -27274,7 +27419,7 @@
         <v>53.657423043033369</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
@@ -27319,7 +27464,7 @@
         <v>47.805595906755521</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
@@ -27364,7 +27509,7 @@
         <v>44.385151421017667</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
@@ -27409,7 +27554,7 @@
         <v>45.612694035135185</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
@@ -27454,7 +27599,7 @@
         <v>42.734437434663199</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
@@ -27499,7 +27644,7 @@
         <v>31.364124941297714</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
@@ -27544,7 +27689,7 @@
         <v>28.332948176653847</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
@@ -27589,7 +27734,7 @@
         <v>24.611142462984798</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
@@ -27634,7 +27779,7 @@
         <v>25.972512942944675</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
@@ -27679,7 +27824,7 @@
         <v>28.42659720352453</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
@@ -27724,7 +27869,7 @@
         <v>19.559433237479777</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>79</v>
       </c>
@@ -27769,7 +27914,7 @@
         <v>20.433253709158929</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80</v>
       </c>
@@ -27814,7 +27959,7 @@
         <v>15.447106371035815</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>81</v>
       </c>
@@ -27859,7 +28004,7 @@
         <v>12.469963913339928</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>82</v>
       </c>
@@ -27904,7 +28049,7 @@
         <v>12.920775076264913</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>83</v>
       </c>
@@ -27949,7 +28094,7 @@
         <v>9.717130185791433</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>84</v>
       </c>
@@ -27994,7 +28139,7 @@
         <v>7.2139910359430495</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>85</v>
       </c>
@@ -28039,7 +28184,7 @@
         <v>4.6058968414724308</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>86</v>
       </c>
@@ -28084,7 +28229,7 @@
         <v>5.2007325491337326</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>87</v>
       </c>
@@ -28129,7 +28274,7 @@
         <v>4.0089186286863656</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>88</v>
       </c>
@@ -28174,7 +28319,7 @@
         <v>2.9990077724220088</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>89</v>
       </c>
@@ -28219,7 +28364,7 @@
         <v>3.7161167647860331</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90</v>
       </c>
@@ -28264,7 +28409,7 @@
         <v>2.6265584942676461</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>91</v>
       </c>
@@ -28309,7 +28454,7 @@
         <v>1.2724180205607036</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
@@ -28354,7 +28499,7 @@
         <v>2.1588687513867737</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>93</v>
       </c>
@@ -28399,7 +28544,7 @@
         <v>1.2511899098363088</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>94</v>
       </c>
@@ -28444,7 +28589,7 @@
         <v>0.81649658092772615</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>95</v>
       </c>
@@ -28489,7 +28634,7 @@
         <v>1.0662573619463369</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>96</v>
       </c>
@@ -28534,7 +28679,7 @@
         <v>0.57217213527132937</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>97</v>
       </c>
@@ -28579,7 +28724,7 @@
         <v>0.89642145700079523</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>98</v>
       </c>
@@ -28624,7 +28769,7 @@
         <v>0.43643578047198478</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>99</v>
       </c>
@@ -28669,7 +28814,7 @@
         <v>0.30860669992418382</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>100</v>
       </c>
@@ -28714,7 +28859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>101</v>
       </c>
@@ -28759,7 +28904,7 @@
         <v>0.2672612419124244</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>102</v>
       </c>
@@ -28804,7 +28949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>103</v>
       </c>
@@ -28849,7 +28994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>104</v>
       </c>
@@ -28894,7 +29039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>105</v>
       </c>
@@ -28939,7 +29084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>106</v>
       </c>
@@ -28984,7 +29129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>107</v>
       </c>
@@ -29029,7 +29174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>108</v>
       </c>
@@ -29074,7 +29219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>109</v>
       </c>
@@ -29119,7 +29264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
@@ -29140,7 +29285,7 @@
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>0</v>
       </c>
@@ -29196,7 +29341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>0</v>
       </c>
@@ -29241,7 +29386,7 @@
         <v>10.42354208347904</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -29286,7 +29431,7 @@
         <v>10.684633309050598</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
@@ -29331,7 +29476,7 @@
         <v>10.056887793739065</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -29376,7 +29521,7 @@
         <v>8.6695936363388117</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -29421,7 +29566,7 @@
         <v>6.1615314113588386</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -29466,7 +29611,7 @@
         <v>6.5541845445414522</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6</v>
       </c>
@@ -29511,7 +29656,7 @@
         <v>9.1606189337473971</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>7</v>
       </c>
@@ -29580,7 +29725,7 @@
         <v>49.633029135560179</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>8</v>
       </c>
@@ -29649,7 +29794,7 @@
         <v>27.511021316766296</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>9</v>
       </c>
@@ -29718,7 +29863,7 @@
         <v>3.585424460835875</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>10</v>
       </c>
@@ -29787,7 +29932,7 @@
         <v>0.38610339106825847</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>11</v>
       </c>
@@ -29856,7 +30001,7 @@
         <v>3.9622048718297914E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>12</v>
       </c>
@@ -29925,7 +30070,7 @@
         <v>0.60952307196998767</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>13</v>
       </c>
@@ -29994,7 +30139,7 @@
         <v>0.26597914302137154</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>14</v>
       </c>
@@ -30063,7 +30208,7 @@
         <v>0.12566165400714771</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>15</v>
       </c>
@@ -30132,7 +30277,7 @@
         <v>0.94085040012740673</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>16</v>
       </c>
@@ -30201,7 +30346,7 @@
         <v>2.63338314305725E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>17</v>
       </c>
@@ -30270,7 +30415,7 @@
         <v>5.1111322949440305E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>18</v>
       </c>
@@ -30339,7 +30484,7 @@
         <v>3.0738511381881089E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>19</v>
       </c>
@@ -30408,7 +30553,7 @@
         <v>2.6610438294890465E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>20</v>
       </c>
@@ -30477,7 +30622,7 @@
         <v>0.19619019386748512</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>21</v>
       </c>
@@ -30546,7 +30691,7 @@
         <v>0.61659935561733259</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>22</v>
       </c>
@@ -30615,7 +30760,7 @@
         <v>0.10272774697807373</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>23</v>
       </c>
@@ -30684,7 +30829,7 @@
         <v>0.11492355050379077</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>24</v>
       </c>
@@ -30753,7 +30898,7 @@
         <v>2.9951253386114726E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>25</v>
       </c>
@@ -30822,7 +30967,7 @@
         <v>1.0462289901420625E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>26</v>
       </c>
@@ -30891,7 +31036,7 @@
         <v>8.3951611465523275E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>27</v>
       </c>
@@ -30960,7 +31105,7 @@
         <v>2.0202875880486627E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>28</v>
       </c>
@@ -31029,7 +31174,7 @@
         <v>2.5711819575046746E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>29</v>
       </c>
@@ -31098,7 +31243,7 @@
         <v>0.41596744483848846</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>30</v>
       </c>
@@ -31167,7 +31312,7 @@
         <v>0.26239100292434619</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>31</v>
       </c>
@@ -31236,7 +31381,7 @@
         <v>1.8581870174564294</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>32</v>
       </c>
@@ -31305,7 +31450,7 @@
         <v>1.0279057475349196</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>33</v>
       </c>
@@ -31374,7 +31519,7 @@
         <v>6.3925340796542496E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>34</v>
       </c>
@@ -31443,7 +31588,7 @@
         <v>8.9060743018394242E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>35</v>
       </c>
@@ -31512,7 +31657,7 @@
         <v>0.9905471872432221</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>36</v>
       </c>
@@ -31581,7 +31726,7 @@
         <v>1.4287638771863378</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>37</v>
       </c>
@@ -31650,7 +31795,7 @@
         <v>0.14959743262317854</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>38</v>
       </c>
@@ -31719,7 +31864,7 @@
         <v>2.012973233710079</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>39</v>
       </c>
@@ -31788,7 +31933,7 @@
         <v>3.6214687522823888E-4</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>40</v>
       </c>
@@ -31857,7 +32002,7 @@
         <v>1.2480745719441468</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>41</v>
       </c>
@@ -31926,7 +32071,7 @@
         <v>0.31824635847041766</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>42</v>
       </c>
@@ -31995,7 +32140,7 @@
         <v>5.284039612197592E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>43</v>
       </c>
@@ -32064,7 +32209,7 @@
         <v>1.9109038987227913</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>44</v>
       </c>
@@ -32133,7 +32278,7 @@
         <v>2.0852100176752972</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>45</v>
       </c>
@@ -32202,7 +32347,7 @@
         <v>0.2387503325337243</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>46</v>
       </c>
@@ -32271,7 +32416,7 @@
         <v>0.13623724422769973</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>47</v>
       </c>
@@ -32340,7 +32485,7 @@
         <v>6.9536312667653616E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>48</v>
       </c>
@@ -32409,7 +32554,7 @@
         <v>0.19091706932240932</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>49</v>
       </c>
@@ -32478,7 +32623,7 @@
         <v>0.73429462221196717</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>50</v>
       </c>
@@ -32547,7 +32692,7 @@
         <v>0.6957225244767582</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>51</v>
       </c>
@@ -32616,7 +32761,7 @@
         <v>9.5070999362846256E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>52</v>
       </c>
@@ -32685,7 +32830,7 @@
         <v>0.33249466466370098</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>53</v>
       </c>
@@ -32754,7 +32899,7 @@
         <v>5.6376350337100041E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>54</v>
       </c>
@@ -32823,7 +32968,7 @@
         <v>0.10908646100081264</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>55</v>
       </c>
@@ -32892,7 +33037,7 @@
         <v>8.7534990249295508E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>56</v>
       </c>
@@ -32961,7 +33106,7 @@
         <v>0.40301216902202652</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>57</v>
       </c>
@@ -33030,7 +33175,7 @@
         <v>2.020014997377416</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>58</v>
       </c>
@@ -33099,7 +33244,7 @@
         <v>1.2566368731929325</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>59</v>
       </c>
@@ -33168,7 +33313,7 @@
         <v>1.1155963705154541</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>60</v>
       </c>
@@ -33237,7 +33382,7 @@
         <v>0.52661399831991829</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>61</v>
       </c>
@@ -33306,7 +33451,7 @@
         <v>1.6136629253620809</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>62</v>
       </c>
@@ -33375,7 +33520,7 @@
         <v>0.68453550861517876</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>63</v>
       </c>
@@ -33444,7 +33589,7 @@
         <v>1.1981364373043917</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>64</v>
       </c>
@@ -33513,7 +33658,7 @@
         <v>0.92935654487734176</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>65</v>
       </c>
@@ -33582,7 +33727,7 @@
         <v>7.6655954265816575E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>66</v>
       </c>
@@ -33651,7 +33796,7 @@
         <v>1.2088730058346191</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>67</v>
       </c>
@@ -33720,7 +33865,7 @@
         <v>0.27608591235586633</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>68</v>
       </c>
@@ -33789,7 +33934,7 @@
         <v>0.64769219413815227</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>69</v>
       </c>
@@ -33858,7 +34003,7 @@
         <v>0.7860536549281496</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>70</v>
       </c>
@@ -33927,7 +34072,7 @@
         <v>2.481249007020403E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>71</v>
       </c>
@@ -33996,7 +34141,7 @@
         <v>2.1904615074081334E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>72</v>
       </c>
@@ -34065,7 +34210,7 @@
         <v>4.9536762411664728E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>73</v>
       </c>
@@ -34134,7 +34279,7 @@
         <v>9.2314206135262118E-4</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>74</v>
       </c>
@@ -34203,7 +34348,7 @@
         <v>0.79218051989832117</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>75</v>
       </c>
@@ -34272,7 +34417,7 @@
         <v>7.4962099730421219E-4</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>76</v>
       </c>
@@ -34341,7 +34486,7 @@
         <v>1.4724122814064302</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>77</v>
       </c>
@@ -34410,7 +34555,7 @@
         <v>0.17222732586472944</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>78</v>
       </c>
@@ -34479,7 +34624,7 @@
         <v>1.7927957888807342</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>79</v>
       </c>
@@ -34548,7 +34693,7 @@
         <v>6.541185109375486</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>80</v>
       </c>
@@ -34617,7 +34762,7 @@
         <v>4.9904788683542423E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>81</v>
       </c>
@@ -34686,7 +34831,7 @@
         <v>3.4612326559232107</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>82</v>
       </c>
@@ -34755,7 +34900,7 @@
         <v>1.3143167534014125E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>83</v>
       </c>
@@ -34824,7 +34969,7 @@
         <v>2.0727685709625088</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>84</v>
       </c>
@@ -34893,7 +35038,7 @@
         <v>2.6540387954653157</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>85</v>
       </c>
@@ -34962,7 +35107,7 @@
         <v>3.2107425816686312</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>86</v>
       </c>
@@ -35031,7 +35176,7 @@
         <v>1.9143124544401533</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>87</v>
       </c>
@@ -35100,7 +35245,7 @@
         <v>0.26070949050282882</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>88</v>
       </c>
@@ -35169,7 +35314,7 @@
         <v>8.6513355598181381</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>89</v>
       </c>
@@ -35238,7 +35383,7 @@
         <v>6.7426659901474171</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>90</v>
       </c>
@@ -35307,7 +35452,7 @@
         <v>3.1263021426650273</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>91</v>
       </c>
@@ -35376,7 +35521,7 @@
         <v>9.491231147046985E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>92</v>
       </c>
@@ -35445,7 +35590,7 @@
         <v>3.8767531865208253</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>93</v>
       </c>
@@ -35514,7 +35659,7 @@
         <v>2.1694325030803749E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>94</v>
       </c>
@@ -35583,7 +35728,7 @@
         <v>13.729954101039658</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>95</v>
       </c>
@@ -35652,7 +35797,7 @@
         <v>1.8245422508504625</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>96</v>
       </c>
@@ -35721,7 +35866,7 @@
         <v>6.5297024158687034</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>97</v>
       </c>
@@ -35790,7 +35935,7 @@
         <v>14.779961346483647</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>98</v>
       </c>
@@ -35859,7 +36004,7 @@
         <v>101.19058289330864</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>99</v>
       </c>
@@ -35928,7 +36073,7 @@
         <v>36.247453403911699</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>100</v>
       </c>
@@ -35981,7 +36126,7 @@
         <v>-1.2306692619022239</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>101</v>
       </c>
@@ -36034,7 +36179,7 @@
         <v>-12.162615902343457</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>102</v>
       </c>
@@ -36087,7 +36232,7 @@
         <v>1.485405204817658</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>103</v>
       </c>
@@ -36140,7 +36285,7 @@
         <v>-0.44780249893665186</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>104</v>
       </c>
@@ -36193,7 +36338,7 @@
         <v>-2.6022000557131744</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>105</v>
       </c>
@@ -36246,7 +36391,7 @@
         <v>-5.0970684685744221</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>106</v>
       </c>
@@ -36299,7 +36444,7 @@
         <v>-3.8723893656861055</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>107</v>
       </c>
@@ -36352,7 +36497,7 @@
         <v>-3.4459600928239489</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>108</v>
       </c>
@@ -36405,7 +36550,7 @@
         <v>-3.5938057280145568</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>109</v>
       </c>
@@ -36458,7 +36603,7 @@
         <v>5.4791715025203196</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J239" t="s">
         <v>17</v>
       </c>
@@ -36466,7 +36611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -36503,7 +36648,7 @@
         <v>184926.81991420136</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -36540,7 +36685,7 @@
         <v>183450</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -36577,7 +36722,7 @@
         <v>1476.8199142013618</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>9</v>
       </c>
@@ -36622,7 +36767,7 @@
         <v>1.8125523770272829E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>10</v>
       </c>
@@ -36659,7 +36804,7 @@
         <v>11.888782005896525</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>19</v>
       </c>
@@ -36696,7 +36841,7 @@
         <v>184810.25349393053</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>20</v>
       </c>
@@ -36733,7 +36878,7 @@
         <v>183404</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>21</v>
       </c>
@@ -36770,7 +36915,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>22</v>
       </c>
@@ -36811,7 +36956,7 @@
         <v>2.3727769738130785E-4</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>23</v>
       </c>
@@ -36848,7 +36993,7 @@
         <v>1406.2534939305333</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>24</v>
       </c>
@@ -36893,7 +37038,7 @@
         <v>1.7391774757797643E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>10</v>
       </c>
